--- a/myCBD/myInfo/year.Map.xlsx
+++ b/myCBD/myInfo/year.Map.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.CBD\myCBD\myInfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -27,19 +22,22 @@
     <t>yGroup1</t>
   </si>
   <si>
-    <t>2001-2005</t>
+    <t>2013-2017</t>
   </si>
   <si>
-    <t>2006-2010</t>
+    <t>2008-2012</t>
   </si>
   <si>
-    <t>2011-2015</t>
+    <t>2003-2007</t>
+  </si>
+  <si>
+    <t>2000-2002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -639,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,7 +672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -883,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -903,8 +901,8 @@
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" s="2">
-        <v>2000</v>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -913,7 +911,7 @@
         <v>2001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -922,7 +920,7 @@
         <v>2002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -931,7 +929,7 @@
         <v>2003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -940,7 +938,7 @@
         <v>2004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -949,7 +947,7 @@
         <v>2005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -957,8 +955,8 @@
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -966,8 +964,8 @@
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1001,7 @@
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,7 +1010,7 @@
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1021,7 +1019,7 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1030,7 +1028,7 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1039,7 +1037,7 @@
         <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1047,8 +1045,16 @@
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="B18">
-        <v>2016</v>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
